--- a/moyusi/Keywords/Web/蘑盒服务.xlsx
+++ b/moyusi/Keywords/Web/蘑盒服务.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="373">
   <si>
     <t>操作类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -254,10 +254,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>//*[text()='审核中']</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>点击-选择“审核中”状态</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -275,10 +271,6 @@
   </si>
   <si>
     <t>点击-选择“审核失败”状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>el-table__body-wrapper</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -673,19 +665,671 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>el-icon-edit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点_xpath对比</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>radio-content</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@class ='el-input__inner']</t>
+    <t>//*[@class ='el-table__row']/td[2]/div</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化短信</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-文本对比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-select__caret</t>
+  </si>
+  <si>
+    <t>el-select__caret</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-状态下拉框按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[text()='审核中']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化短信</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-table__row</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-table__row</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-table__row</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class = 'menu-list4']/div/label[1]</t>
+  </si>
+  <si>
+    <t>//*[@class = 'menu-list4']/div/label[1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击_文本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权蘑盒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权蘑盒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-页面元素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一号蘑盒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一号蘑盒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-页面元素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用范围</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用范围</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[text()='使用范围']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击_xpath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击_xpath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-使用范围按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-使用范围窗口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-checkbox__label</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-门店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-重置按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-确认按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-选择第一个门店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动屏幕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>向下滑动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动屏幕-向下滑动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-重置按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-确认按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://101.132.157.87:8080/#/marketing/magicBox/storeBox</t>
+  </si>
+  <si>
+    <t>//*[@class='el-form-item']/div/button[1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class='el-form-item']/div/button[2]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://101.132.157.87:8080/#/marketing/magicBox/boxManage</t>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-页面元素状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑盒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-页面元素蘑盒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-页面元素门店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-页面元素时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>search-in</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-页面元素搜索框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击_className</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>btn-next</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-下一页按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-全部状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送短信成功</t>
+  </si>
+  <si>
+    <t>检查点-发送短信成功状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[text()='发送短信成功']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-发送短信成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>if_文本不包含</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>If如果有数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[text()='全部']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-全部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-蘑盒下拉框按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-select-dropdown__item</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-select-dropdown__item</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-蘑盒名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>if_id包含</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-第一个蘑盒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-第二个蘑盒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[1]/div[1]/ul/li[1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[1]/div[1]/ul/li[2]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-点击叉按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-tag__close</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-tag__close</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-第一页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-tag__close</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class='search-in']/input</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-搜索输入框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入_xpath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入-“2”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class='search-in']/button</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-搜索按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-第一个门店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清空-搜索框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-第二个门店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入_classname时间</t>
+  </si>
+  <si>
+    <t>el-range-input</t>
+  </si>
+  <si>
+    <t>输入-蘑客获取开始时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入-蘑客获取结束时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div[5]/div[2]/button[2]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-确定按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-短信服务按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑客管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-蘑客管理按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店蘑盒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-门店蘑盒按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信余额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信余额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-短信余额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信购买总量/条：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信购买总量/条：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用记录</t>
+  </si>
+  <si>
+    <t>使用记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-短信购买总量/条：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-购买记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-使用记录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信推送</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-短信推送按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增短信推送</t>
+  </si>
+  <si>
+    <t>新增短信推送</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-新增短信推送</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-搜索</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-range-input</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-时间输入框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-input__icon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-时间清除按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入-“短信”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>busi-btns</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-新增短信推送按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点_url</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://101.132.157.87:8080/#/marketing/magicBox/addSMSPush</t>
+  </si>
+  <si>
+    <t>第一步：选择短信推送人</t>
+  </si>
+  <si>
+    <t>检查点-第一步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二步：选择短信模板</t>
+  </si>
+  <si>
+    <t>检查点-第二步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三步：发送短信</t>
+  </si>
+  <si>
+    <t>检查点-第三步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四步：完成</t>
+  </si>
+  <si>
+    <t>检查点-第四步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑盒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑盒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-蘑盒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机型号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机型号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-手机型号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-input__suffix</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-蘑盒下拉列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择第一个蘑盒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-关闭蘑盒下拉列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-选择时间输入框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[text()='苹果']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-手机型号选择“苹果”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-关闭手机型号下拉列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-手机型号下拉列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[text()='下一步']</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-下一步按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预览短信内容</t>
+  </si>
+  <si>
+    <t>检查点-预览短信内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择短信模板</t>
+  </si>
+  <si>
+    <t>选择短信模板</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-选择短信模板</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -693,7 +1337,161 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>//*[@class = 'dialog-footer']/button[1]</t>
+    <t>点击-选择第一条短信模板</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>return</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-返回上一步按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中蘑客量/个</t>
+  </si>
+  <si>
+    <t>检查点-选中蘑客量/个</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信余量/条</t>
+  </si>
+  <si>
+    <t>检查点-短信余量/条</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送数量</t>
+  </si>
+  <si>
+    <t>检查点-发送数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送时间</t>
+  </si>
+  <si>
+    <t>检查点-发送时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div[2]/div[2]/div[2]/div[2]/div[3]/form/div[1]/div/div/input</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div[2]/div[2]/div[2]/div[2]/div[3]/form/div[2]/div/div/input</t>
+  </si>
+  <si>
+    <t>点击-发送数量输入框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入-发送数量“1”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-radio__label</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-选择立即发送</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-选择定时发送</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-input__inner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-发送时间输入框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入-发送时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入_classname时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div[5]/div[2]/button[1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-选择此刻时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div[4]/div[2]/button[2]/span</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送时间必须大于当前时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送时间必须大于当前时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-发送提示：发送时间必须大于当前时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信推送已完成！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信推送已完成！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-提示：短信推送已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://101.132.157.87:8080/#/home</t>
+  </si>
+  <si>
+    <t>检查点-首页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-“首页”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-select-dropdown__item</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>el-range-input</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div[4]/div[1]/div[1]/ul/li</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class='search-in']/input</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清空输入框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-搜索框</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -795,7 +1593,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -852,6 +1650,9 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1132,16 +1933,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H192"/>
+  <dimension ref="A1:H395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="B156" sqref="B156"/>
+    <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
+      <selection activeCell="A325" sqref="A325:XFD325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19.875" customWidth="1"/>
-    <col min="2" max="2" width="45.125" customWidth="1"/>
+    <col min="2" max="2" width="56.875" customWidth="1"/>
     <col min="3" max="3" width="4.5" customWidth="1"/>
     <col min="4" max="4" width="33.75" customWidth="1"/>
     <col min="5" max="5" width="32.875" customWidth="1"/>
@@ -1221,7 +2022,7 @@
         <v>43</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1368,16 +2169,16 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1487,14 +2288,14 @@
     </row>
     <row r="25" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
       <c r="A25" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F25" s="17"/>
     </row>
@@ -1516,121 +2317,121 @@
         <v>16</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="16.5">
       <c r="A28" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F28" s="20"/>
     </row>
     <row r="29" spans="1:6" ht="16.5">
       <c r="A29" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" ht="16.5">
       <c r="A30" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" s="20"/>
       <c r="E30" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F30" s="20"/>
     </row>
     <row r="31" spans="1:6" ht="16.5">
       <c r="A31" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="F31" s="20"/>
     </row>
     <row r="32" spans="1:6" ht="16.5">
       <c r="A32" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D32" s="20"/>
       <c r="E32" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F32" s="20"/>
     </row>
     <row r="33" spans="1:6" ht="16.5">
       <c r="A33" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F33" s="20"/>
     </row>
     <row r="34" spans="1:6" ht="16.5">
       <c r="A34" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D34" s="20"/>
       <c r="E34" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F34" s="20"/>
     </row>
@@ -1652,13 +2453,13 @@
         <v>16</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1666,13 +2467,13 @@
         <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1680,13 +2481,13 @@
         <v>16</v>
       </c>
       <c r="D38" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>100</v>
-      </c>
       <c r="F38" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1694,13 +2495,13 @@
         <v>16</v>
       </c>
       <c r="D39" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>103</v>
-      </c>
       <c r="F39" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1708,13 +2509,13 @@
         <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F40" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1722,10 +2523,10 @@
         <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
@@ -1743,14 +2544,14 @@
     </row>
     <row r="43" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
       <c r="A43" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B43" s="22"/>
       <c r="D43" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E43" s="23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F43" s="25"/>
     </row>
@@ -1759,25 +2560,25 @@
         <v>43</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C44" s="16">
         <v>0</v>
       </c>
       <c r="D44" s="18"/>
       <c r="E44" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F44" s="19"/>
     </row>
     <row r="45" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
       <c r="A45" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B45" s="22"/>
       <c r="D45" s="24"/>
       <c r="E45" s="23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F45" s="25"/>
     </row>
@@ -1786,10 +2587,10 @@
         <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
@@ -1807,14 +2608,14 @@
     </row>
     <row r="48" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
       <c r="A48" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B48" s="22"/>
       <c r="D48" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F48" s="25"/>
     </row>
@@ -1823,25 +2624,25 @@
         <v>43</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C49" s="16">
         <v>0</v>
       </c>
       <c r="D49" s="18"/>
       <c r="E49" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F49" s="19"/>
     </row>
     <row r="50" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
       <c r="A50" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B50" s="22"/>
       <c r="D50" s="24"/>
       <c r="E50" s="23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F50" s="25"/>
     </row>
@@ -1850,10 +2651,10 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
@@ -1871,41 +2672,38 @@
     </row>
     <row r="53" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
       <c r="A53" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B53" s="22"/>
       <c r="D53" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F53" s="25"/>
     </row>
     <row r="54" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
       <c r="A54" s="5" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="C54" s="16">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="D54" s="18"/>
       <c r="E54" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F54" s="19"/>
     </row>
     <row r="55" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
       <c r="A55" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B55" s="22"/>
       <c r="D55" s="24"/>
       <c r="E55" s="23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F55" s="25"/>
     </row>
@@ -1914,10 +2712,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
@@ -1935,14 +2733,14 @@
     </row>
     <row r="58" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
       <c r="A58" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B58" s="22"/>
       <c r="D58" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E58" s="23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F58" s="25"/>
     </row>
@@ -1951,25 +2749,25 @@
         <v>43</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C59" s="16">
         <v>0</v>
       </c>
       <c r="D59" s="18"/>
       <c r="E59" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F59" s="19"/>
     </row>
     <row r="60" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
       <c r="A60" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B60" s="22"/>
       <c r="D60" s="24"/>
       <c r="E60" s="23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F60" s="25"/>
     </row>
@@ -1978,14 +2776,14 @@
         <v>57</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C61" s="16">
         <v>1</v>
       </c>
       <c r="D61" s="18"/>
       <c r="E61" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F61" s="19"/>
     </row>
@@ -2004,14 +2802,14 @@
     </row>
     <row r="63" spans="1:6" ht="16.5">
       <c r="A63" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B63" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D63" s="20"/>
       <c r="E63" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F63" s="20"/>
     </row>
@@ -2033,13 +2831,13 @@
         <v>16</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2047,13 +2845,13 @@
         <v>16</v>
       </c>
       <c r="D66" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F66" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2061,13 +2859,13 @@
         <v>16</v>
       </c>
       <c r="D67" t="s">
+        <v>96</v>
+      </c>
+      <c r="E67" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E67" s="5" t="s">
-        <v>100</v>
-      </c>
       <c r="F67" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2075,13 +2873,13 @@
         <v>16</v>
       </c>
       <c r="D68" t="s">
+        <v>99</v>
+      </c>
+      <c r="E68" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E68" s="5" t="s">
-        <v>103</v>
-      </c>
       <c r="F68" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2089,13 +2887,13 @@
         <v>16</v>
       </c>
       <c r="D69" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F69" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2103,10 +2901,10 @@
         <v>57</v>
       </c>
       <c r="B70" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
@@ -2124,14 +2922,14 @@
     </row>
     <row r="72" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
       <c r="A72" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B72" s="22"/>
       <c r="D72" s="24" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E72" s="23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F72" s="25"/>
     </row>
@@ -2140,25 +2938,25 @@
         <v>43</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C73" s="16">
         <v>0</v>
       </c>
       <c r="D73" s="18"/>
       <c r="E73" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F73" s="19"/>
     </row>
     <row r="74" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
       <c r="A74" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B74" s="22"/>
       <c r="D74" s="24"/>
       <c r="E74" s="23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F74" s="25"/>
     </row>
@@ -2167,10 +2965,10 @@
         <v>57</v>
       </c>
       <c r="B75" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
@@ -2188,14 +2986,14 @@
     </row>
     <row r="77" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
       <c r="A77" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B77" s="22"/>
       <c r="D77" s="24" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E77" s="23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F77" s="25"/>
     </row>
@@ -2204,25 +3002,25 @@
         <v>43</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C78" s="16">
         <v>0</v>
       </c>
       <c r="D78" s="18"/>
       <c r="E78" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F78" s="19"/>
     </row>
     <row r="79" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
       <c r="A79" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B79" s="22"/>
       <c r="D79" s="24"/>
       <c r="E79" s="23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F79" s="25"/>
     </row>
@@ -2231,10 +3029,10 @@
         <v>57</v>
       </c>
       <c r="B80" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
@@ -2252,41 +3050,38 @@
     </row>
     <row r="82" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
       <c r="A82" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B82" s="22"/>
       <c r="D82" s="24" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E82" s="23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F82" s="25"/>
     </row>
     <row r="83" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
       <c r="A83" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C83" s="16">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="D83" s="18"/>
       <c r="E83" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F83" s="19"/>
     </row>
     <row r="84" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
       <c r="A84" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B84" s="22"/>
       <c r="D84" s="24"/>
       <c r="E84" s="23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F84" s="25"/>
     </row>
@@ -2295,10 +3090,10 @@
         <v>57</v>
       </c>
       <c r="B85" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
@@ -2316,14 +3111,14 @@
     </row>
     <row r="87" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
       <c r="A87" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B87" s="22"/>
       <c r="D87" s="24" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E87" s="23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F87" s="25"/>
     </row>
@@ -2332,25 +3127,25 @@
         <v>43</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C88" s="16">
         <v>0</v>
       </c>
       <c r="D88" s="18"/>
       <c r="E88" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F88" s="19"/>
     </row>
     <row r="89" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
       <c r="A89" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B89" s="22"/>
       <c r="D89" s="24"/>
       <c r="E89" s="23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F89" s="25"/>
     </row>
@@ -2359,14 +3154,14 @@
         <v>57</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C90" s="16">
         <v>1</v>
       </c>
       <c r="D90" s="18"/>
       <c r="E90" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F90" s="19"/>
     </row>
@@ -2388,13 +3183,13 @@
         <v>16</v>
       </c>
       <c r="D92" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F92" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
@@ -2402,14 +3197,14 @@
         <v>57</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C93" s="16">
         <v>0</v>
       </c>
       <c r="D93" s="18"/>
       <c r="E93" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F93" s="19"/>
     </row>
@@ -2418,13 +3213,13 @@
         <v>16</v>
       </c>
       <c r="D94" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E94" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E94" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="F94" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="95" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
@@ -2471,16 +3266,16 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B98" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F98" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2515,26 +3310,26 @@
         <v>57</v>
       </c>
       <c r="B101" s="26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D101" s="27"/>
       <c r="E101" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F101" s="29"/>
     </row>
     <row r="102" spans="1:6" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A102" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B102" s="26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D102" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F102" s="29"/>
     </row>
@@ -2543,11 +3338,11 @@
         <v>57</v>
       </c>
       <c r="B103" s="26" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D103" s="20"/>
       <c r="E103" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F103" s="29"/>
     </row>
@@ -2566,231 +3361,211 @@
     </row>
     <row r="105" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
       <c r="A105" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B105" s="22"/>
       <c r="D105" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="E105" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="E105" s="23" t="s">
-        <v>68</v>
-      </c>
       <c r="F105" s="25"/>
     </row>
     <row r="106" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A106" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B106" t="s">
+      <c r="A106" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B106" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C106" s="16">
+        <v>1</v>
+      </c>
+      <c r="D106" s="18"/>
+      <c r="E106" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="E106" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F106" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A107" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B107" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E107" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F107" s="17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="5" t="s">
+      <c r="F106" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A107" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D107" s="31"/>
+      <c r="E107" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="F107" s="22"/>
+    </row>
+    <row r="108" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A108" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B108" s="11">
+        <v>3000</v>
+      </c>
+      <c r="D108" s="12"/>
+      <c r="E108" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F108" s="13"/>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B108" t="s">
-        <v>69</v>
-      </c>
-      <c r="C108">
-        <v>0</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" t="s">
-        <v>16</v>
-      </c>
-      <c r="D109" s="15" t="s">
-        <v>128</v>
+      <c r="B109" t="s">
+        <v>42</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F109" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1">
-      <c r="A110" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B110" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="C110" s="14">
-        <v>2</v>
-      </c>
-      <c r="D110" s="27"/>
-      <c r="E110" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="F110" s="29" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A110" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B110" s="11">
+        <v>3000</v>
+      </c>
+      <c r="D110" s="12"/>
+      <c r="E110" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110" s="13"/>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B111" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="C111" s="14">
-        <v>3</v>
-      </c>
-      <c r="D111" s="27"/>
-      <c r="E111" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="F111" s="29" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="16.5">
-      <c r="A112" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B111" t="s">
+        <v>166</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A112" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112" s="11">
+        <v>3000</v>
+      </c>
+      <c r="D112" s="12"/>
+      <c r="E112" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F112" s="13"/>
+    </row>
+    <row r="113" spans="1:6" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A113" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B113" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="D113" s="27"/>
+      <c r="E113" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F113" s="29"/>
+    </row>
+    <row r="114" spans="1:6" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A114" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B114" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="D114" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="C112">
-        <v>1</v>
-      </c>
-      <c r="D112" s="20"/>
-      <c r="E112" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F112" s="20"/>
-    </row>
-    <row r="113" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A113" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B113" s="11">
+      <c r="E114" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F114" s="29"/>
+    </row>
+    <row r="115" spans="1:6" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A115" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B115" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="D115" s="20"/>
+      <c r="E115" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F115" s="29"/>
+    </row>
+    <row r="116" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A116" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B116" s="11">
         <v>3000</v>
       </c>
-      <c r="D113" s="12"/>
-      <c r="E113" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F113" s="13"/>
-    </row>
-    <row r="114" spans="1:6" ht="16.5">
-      <c r="A114" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B114" t="s">
-        <v>137</v>
-      </c>
-      <c r="C114">
-        <v>0</v>
-      </c>
-      <c r="D114" s="20"/>
-      <c r="E114" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F114" s="20"/>
-    </row>
-    <row r="115" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A115" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B115" s="11">
-        <v>3000</v>
-      </c>
-      <c r="D115" s="12"/>
-      <c r="E115" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F115" s="13"/>
-    </row>
-    <row r="116" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A116" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B116" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E116" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="F116" s="17" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A117" t="s">
-        <v>16</v>
-      </c>
-      <c r="D117" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E117" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="F117" s="17" t="s">
-        <v>141</v>
-      </c>
+      <c r="D116" s="12"/>
+      <c r="E116" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F116" s="13"/>
+    </row>
+    <row r="117" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A117" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B117" s="22"/>
+      <c r="D117" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E117" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F117" s="25"/>
     </row>
     <row r="118" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
       <c r="A118" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B118" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="D118" s="9"/>
+        <v>129</v>
+      </c>
+      <c r="B118" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C118" s="16">
+        <v>1</v>
+      </c>
+      <c r="D118" s="18"/>
       <c r="E118" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="F118" s="17"/>
-    </row>
-    <row r="119" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A119" t="s">
-        <v>16</v>
-      </c>
-      <c r="D119" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="F118" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A119" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="E119" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="F119" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A120" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="D120" s="31"/>
-      <c r="E120" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="F120" s="22"/>
+      <c r="D119" s="31"/>
+      <c r="E119" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="F119" s="22"/>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B120" t="s">
+        <v>42</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="121" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
       <c r="A121" s="10" t="s">
@@ -2807,13 +3582,13 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="5" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="B122" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="123" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
@@ -2829,151 +3604,163 @@
       </c>
       <c r="F123" s="13"/>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A124" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B124" t="s">
-        <v>60</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A125" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B125" s="11">
-        <v>3000</v>
-      </c>
-      <c r="D125" s="12"/>
-      <c r="E125" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F125" s="13"/>
+      <c r="B124" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="D124" s="27"/>
+      <c r="E124" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F124" s="29"/>
+    </row>
+    <row r="125" spans="1:6" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A125" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B125" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="D125" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E125" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F125" s="29"/>
     </row>
     <row r="126" spans="1:6" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A126" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B126" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="D126" s="27"/>
+        <v>152</v>
+      </c>
+      <c r="D126" s="20"/>
       <c r="E126" s="14" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F126" s="29"/>
     </row>
-    <row r="127" spans="1:6" s="14" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A127" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B127" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="D127" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="E127" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="F127" s="29"/>
-    </row>
-    <row r="128" spans="1:6" s="14" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A128" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B128" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="D128" s="20"/>
-      <c r="E128" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="F128" s="29"/>
-    </row>
-    <row r="129" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A129" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B129" s="11">
+    <row r="127" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A127" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B127" s="11">
         <v>3000</v>
       </c>
-      <c r="D129" s="12"/>
-      <c r="E129" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F129" s="13"/>
-    </row>
-    <row r="130" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A130" s="21" t="s">
+      <c r="D127" s="12"/>
+      <c r="E127" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F127" s="13"/>
+    </row>
+    <row r="128" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A128" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B128" s="22"/>
+      <c r="D128" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="E128" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F128" s="25"/>
+    </row>
+    <row r="129" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A129" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B129" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B130" s="22"/>
-      <c r="D130" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="E130" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="F130" s="25"/>
-    </row>
-    <row r="131" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A131" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B131" s="17" t="s">
+      <c r="E129" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E131" s="16" t="s">
+      <c r="F129" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" s="16" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A130" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="F131" s="17" t="s">
+      <c r="D130" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E130" s="16" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A132" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D132" s="17" t="s">
+      <c r="F130" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="E132" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F132" s="17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B131" t="s">
+        <v>67</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
+        <v>16</v>
+      </c>
+      <c r="D132" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F132" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A133" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B133" t="s">
-        <v>69</v>
-      </c>
-      <c r="C133">
-        <v>0</v>
-      </c>
-      <c r="E133" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134" t="s">
-        <v>16</v>
-      </c>
-      <c r="D134" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="E134" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B133" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C133" s="14">
+        <v>2</v>
+      </c>
+      <c r="D133" s="27"/>
+      <c r="E133" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F133" s="29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1">
+      <c r="A134" s="5" t="s">
         <v>129</v>
+      </c>
+      <c r="B134" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C134" s="14">
+        <v>3</v>
+      </c>
+      <c r="D134" s="27"/>
+      <c r="E134" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="F134" s="29" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="16.5">
@@ -2981,11 +3768,11 @@
         <v>57</v>
       </c>
       <c r="B135" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D135" s="20"/>
       <c r="E135" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F135" s="20"/>
     </row>
@@ -3007,14 +3794,14 @@
         <v>57</v>
       </c>
       <c r="B137" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C137">
         <v>0</v>
       </c>
       <c r="D137" s="20"/>
       <c r="E137" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F137" s="20"/>
     </row>
@@ -3036,13 +3823,13 @@
         <v>36</v>
       </c>
       <c r="B139" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F139" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="140" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
@@ -3050,13 +3837,13 @@
         <v>16</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F140" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="141" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
@@ -3064,11 +3851,11 @@
         <v>57</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F141" s="17"/>
     </row>
@@ -3077,29 +3864,37 @@
         <v>16</v>
       </c>
       <c r="D142" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F142" s="17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="143" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
       <c r="A143" s="30" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D143" s="31"/>
       <c r="E143" s="23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F143" s="22"/>
     </row>
-    <row r="144" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B144" s="17"/>
-      <c r="D144" s="18"/>
-      <c r="F144" s="19"/>
+    <row r="144" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A144" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B144" s="11">
+        <v>3000</v>
+      </c>
+      <c r="D144" s="12"/>
+      <c r="E144" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F144" s="13"/>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="5" t="s">
@@ -3112,51 +3907,53 @@
         <v>44</v>
       </c>
     </row>
-    <row r="146" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A146" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B146" s="11">
+    <row r="146" spans="1:6">
+      <c r="A146" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B146" t="s">
+        <v>63</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A147" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B147" s="11">
         <v>3000</v>
       </c>
-      <c r="D146" s="12"/>
-      <c r="E146" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F146" s="13"/>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147" s="5" t="s">
+      <c r="D147" s="12"/>
+      <c r="E147" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F147" s="13"/>
+    </row>
+    <row r="148" spans="1:6" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A148" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B147" t="s">
-        <v>62</v>
-      </c>
-      <c r="E147" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A148" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B148" s="11">
-        <v>3000</v>
-      </c>
-      <c r="D148" s="12"/>
-      <c r="E148" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F148" s="13"/>
+      <c r="B148" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="D148" s="27"/>
+      <c r="E148" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F148" s="29"/>
     </row>
     <row r="149" spans="1:6" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A149" s="5" t="s">
-        <v>57</v>
+        <v>150</v>
       </c>
       <c r="B149" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="D149" s="27"/>
+        <v>148</v>
+      </c>
+      <c r="D149" s="20" t="s">
+        <v>82</v>
+      </c>
       <c r="E149" s="14" t="s">
         <v>151</v>
       </c>
@@ -3164,269 +3961,265 @@
     </row>
     <row r="150" spans="1:6" s="14" customFormat="1" ht="20.25" customHeight="1">
       <c r="A150" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B150" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="B150" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="D150" s="20" t="s">
-        <v>84</v>
-      </c>
+      <c r="D150" s="20"/>
       <c r="E150" s="14" t="s">
         <v>153</v>
       </c>
       <c r="F150" s="29"/>
     </row>
-    <row r="151" spans="1:6" s="14" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A151" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B151" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="D151" s="20"/>
-      <c r="E151" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="F151" s="29"/>
-    </row>
-    <row r="152" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A152" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B152" s="11">
+    <row r="151" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A151" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B151" s="11">
         <v>3000</v>
       </c>
-      <c r="D152" s="12"/>
-      <c r="E152" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F152" s="13"/>
-    </row>
-    <row r="153" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A153" s="21" t="s">
+      <c r="D151" s="12"/>
+      <c r="E151" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F151" s="13"/>
+    </row>
+    <row r="152" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A152" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B152" s="22"/>
+      <c r="D152" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="E152" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F152" s="25"/>
+    </row>
+    <row r="153" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A153" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B153" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B153" s="22"/>
-      <c r="D153" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="E153" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="F153" s="25"/>
+      <c r="E153" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F153" s="17" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="154" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
       <c r="A154" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B154" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D154" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E154" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E154" s="16" t="s">
-        <v>71</v>
-      </c>
       <c r="F154" s="17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" s="16" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A155" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D155" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="E155" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F155" s="17" t="s">
-        <v>74</v>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B155" t="s">
+        <v>67</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B156" t="s">
-        <v>69</v>
-      </c>
-      <c r="C156">
-        <v>0</v>
+      <c r="A156" t="s">
+        <v>16</v>
+      </c>
+      <c r="D156" s="15" t="s">
+        <v>126</v>
       </c>
       <c r="E156" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F156" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
-      <c r="A157" t="s">
-        <v>16</v>
-      </c>
-      <c r="D157" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="E157" s="5" t="s">
+    <row r="157" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1">
+      <c r="A157" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B157" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C157" s="14">
+        <v>2</v>
+      </c>
+      <c r="D157" s="27"/>
+      <c r="E157" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="F157" t="s">
-        <v>129</v>
+      <c r="F157" s="29" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="158" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A158" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B158" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="B158" s="26" t="s">
-        <v>133</v>
-      </c>
       <c r="C158" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D158" s="27"/>
       <c r="E158" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F158" s="29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="16.5">
+      <c r="A159" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B159" t="s">
+        <v>142</v>
+      </c>
+      <c r="D159" s="20"/>
+      <c r="E159" s="5" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1">
-      <c r="A159" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B159" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="C159" s="14">
-        <v>3</v>
-      </c>
-      <c r="D159" s="27"/>
-      <c r="E159" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="F159" s="29" t="s">
+      <c r="F159" s="20"/>
+    </row>
+    <row r="160" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A160" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B160" s="11">
+        <v>3000</v>
+      </c>
+      <c r="D160" s="12"/>
+      <c r="E160" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F160" s="13"/>
+    </row>
+    <row r="161" spans="1:6" ht="16.5">
+      <c r="A161" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B161" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" ht="16.5">
-      <c r="A160" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B160" t="s">
-        <v>144</v>
-      </c>
-      <c r="D160" s="20"/>
-      <c r="E160" s="5" t="s">
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161" s="20"/>
+      <c r="E161" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F160" s="20"/>
-    </row>
-    <row r="161" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A161" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B161" s="11">
+      <c r="F161" s="20"/>
+    </row>
+    <row r="162" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A162" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B162" s="11">
         <v>3000</v>
       </c>
-      <c r="D161" s="12"/>
-      <c r="E161" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F161" s="13"/>
-    </row>
-    <row r="162" spans="1:6" ht="16.5">
-      <c r="A162" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B162" t="s">
+      <c r="D162" s="12"/>
+      <c r="E162" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F162" s="13"/>
+    </row>
+    <row r="163" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A163" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B163" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="C162">
-        <v>0</v>
-      </c>
-      <c r="D162" s="20"/>
-      <c r="E162" s="5" t="s">
+      <c r="E163" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="F162" s="20"/>
-    </row>
-    <row r="163" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A163" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B163" s="11">
-        <v>3000</v>
-      </c>
-      <c r="D163" s="12"/>
-      <c r="E163" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F163" s="13"/>
+      <c r="F163" s="17" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="164" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A164" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B164" s="17" t="s">
-        <v>139</v>
+      <c r="A164" t="s">
+        <v>16</v>
+      </c>
+      <c r="D164" s="9" t="s">
+        <v>140</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F164" s="17" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="165" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A165" t="s">
-        <v>16</v>
-      </c>
-      <c r="D165" s="9" t="s">
-        <v>142</v>
-      </c>
+      <c r="A165" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B165" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D165" s="9"/>
       <c r="E165" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="F165" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F165" s="17"/>
+    </row>
+    <row r="166" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A166" t="s">
+        <v>16</v>
+      </c>
+      <c r="D166" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E166" s="16" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A166" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B166" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="D166" s="9"/>
-      <c r="E166" s="16" t="s">
+      <c r="F166" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="F166" s="17"/>
-    </row>
-    <row r="167" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A167" t="s">
-        <v>16</v>
-      </c>
-      <c r="D167" s="15" t="s">
+    </row>
+    <row r="167" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A167" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="E167" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="F167" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A168" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="D168" s="31"/>
-      <c r="E168" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="F168" s="22"/>
+      <c r="D167" s="31"/>
+      <c r="E167" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="F167" s="22"/>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B168" t="s">
+        <v>266</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="169" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
       <c r="A169" s="10" t="s">
@@ -3442,80 +4235,88 @@
       <c r="F169" s="13"/>
     </row>
     <row r="170" spans="1:6">
-      <c r="A170" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B170" t="s">
-        <v>42</v>
+      <c r="A170" t="s">
+        <v>11</v>
+      </c>
+      <c r="B170" s="6"/>
+      <c r="D170" t="s">
+        <v>200</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="A171" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B171" t="s">
-        <v>64</v>
-      </c>
-      <c r="E171" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F170" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A171" t="s">
+        <v>16</v>
+      </c>
+      <c r="D171" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="E171" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="F171" s="17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A172" s="21" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A172" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B172" s="11">
-        <v>3000</v>
-      </c>
-      <c r="D172" s="12"/>
-      <c r="E172" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F172" s="13"/>
-    </row>
-    <row r="173" spans="1:6" s="14" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A173" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B173" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="D173" s="27"/>
-      <c r="E173" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="F173" s="29"/>
-    </row>
-    <row r="174" spans="1:6" s="14" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A174" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B174" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="D174" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="E174" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="F174" s="29"/>
-    </row>
-    <row r="175" spans="1:6" s="14" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A175" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B175" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="D175" s="20"/>
-      <c r="E175" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="F175" s="29"/>
+      <c r="B172" s="22"/>
+      <c r="D172" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="E172" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F172" s="25"/>
+    </row>
+    <row r="173" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A173" t="s">
+        <v>16</v>
+      </c>
+      <c r="D173" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="E173" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F173" s="17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A174" t="s">
+        <v>16</v>
+      </c>
+      <c r="D174" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="E174" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="F174" s="17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" t="s">
+        <v>184</v>
+      </c>
+      <c r="B175" t="s">
+        <v>182</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="E175" s="16" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="176" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
       <c r="A176" s="10" t="s">
@@ -3530,230 +4331,2841 @@
       </c>
       <c r="F176" s="13"/>
     </row>
-    <row r="177" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A177" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B177" s="22"/>
-      <c r="D177" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="E177" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="F177" s="25"/>
-    </row>
-    <row r="178" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
+    <row r="177" spans="1:6">
+      <c r="A177" t="s">
+        <v>16</v>
+      </c>
+      <c r="D177" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F177" s="15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
       <c r="A178" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B178" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E178" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F178" s="17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A179" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D179" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E179" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F179" s="17" t="s">
-        <v>74</v>
+      <c r="B178" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F178" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" t="s">
+        <v>16</v>
+      </c>
+      <c r="D179" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="E179" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F179" s="15" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B180" t="s">
-        <v>69</v>
-      </c>
-      <c r="C180">
+      <c r="A180" t="s">
+        <v>16</v>
+      </c>
+      <c r="D180" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F180" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B181" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C181">
         <v>0</v>
       </c>
-      <c r="E180" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
-      <c r="A181" t="s">
-        <v>16</v>
-      </c>
-      <c r="D181" s="15" t="s">
-        <v>128</v>
-      </c>
       <c r="E181" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F181" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1">
-      <c r="A182" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B182" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="C182" s="14">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" t="s">
+        <v>195</v>
+      </c>
+      <c r="B182" t="s">
+        <v>196</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A183" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B183" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D183" s="12"/>
+      <c r="E183" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F183" s="13"/>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" t="s">
+        <v>184</v>
+      </c>
+      <c r="B184" t="s">
+        <v>201</v>
+      </c>
+      <c r="E184" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" t="s">
+        <v>184</v>
+      </c>
+      <c r="B185" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E185" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A186" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B186" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D186" s="12"/>
+      <c r="E186" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F186" s="13"/>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" t="s">
+        <v>11</v>
+      </c>
+      <c r="B187" s="6"/>
+      <c r="D187" t="s">
+        <v>200</v>
+      </c>
+      <c r="E187" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F187" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A188" t="s">
+        <v>16</v>
+      </c>
+      <c r="D188" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="E188" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="F188" s="17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A189" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D189" s="31"/>
+      <c r="E189" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="F189" s="22"/>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B190" t="s">
+        <v>264</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A191" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B191" s="11">
+        <v>3000</v>
+      </c>
+      <c r="D191" s="12"/>
+      <c r="E191" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F191" s="13"/>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" t="s">
+        <v>11</v>
+      </c>
+      <c r="B192" s="6"/>
+      <c r="D192" t="s">
+        <v>204</v>
+      </c>
+      <c r="E192" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F192" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A193" t="s">
+        <v>16</v>
+      </c>
+      <c r="D193" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="E193" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="F193" s="17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A194" t="s">
+        <v>16</v>
+      </c>
+      <c r="D194" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="E194" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="F194" s="17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A195" t="s">
+        <v>16</v>
+      </c>
+      <c r="D195" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="E195" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="F195" s="17" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A196" t="s">
+        <v>16</v>
+      </c>
+      <c r="D196" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="E196" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="F196" s="17" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B197" t="s">
+        <v>215</v>
+      </c>
+      <c r="E197" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="F197" s="17" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A198" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="B198" s="22"/>
+      <c r="D198" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="E198" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="F198" s="25"/>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B199" t="s">
+        <v>218</v>
+      </c>
+      <c r="E199" s="16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A200" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B200" s="11">
+        <v>3000</v>
+      </c>
+      <c r="D200" s="12"/>
+      <c r="E200" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F200" s="13"/>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B201" t="s">
+        <v>218</v>
+      </c>
+      <c r="E201" s="16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A202" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D202" s="31"/>
+      <c r="E202" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="F202" s="22"/>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B203" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+      <c r="E203" s="16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A204" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B204" s="11">
+        <v>3000</v>
+      </c>
+      <c r="D204" s="12"/>
+      <c r="E204" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F204" s="13"/>
+    </row>
+    <row r="205" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A205" t="s">
+        <v>16</v>
+      </c>
+      <c r="D205" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="E205" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="F205" s="17" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A206" t="s">
+        <v>16</v>
+      </c>
+      <c r="D206" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="E206" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="F206" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" t="s">
+        <v>184</v>
+      </c>
+      <c r="B207" t="s">
+        <v>225</v>
+      </c>
+      <c r="E207" s="16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A208" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="B208" s="22"/>
+      <c r="D208" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="E208" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="F208" s="25"/>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B209" t="s">
+        <v>218</v>
+      </c>
+      <c r="E209" s="16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A210" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D210" s="31"/>
+      <c r="E210" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="F210" s="22"/>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B211" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C211">
+        <v>0</v>
+      </c>
+      <c r="E211" s="16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A212" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B212" s="11">
+        <v>3000</v>
+      </c>
+      <c r="D212" s="12"/>
+      <c r="E212" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F212" s="13"/>
+    </row>
+    <row r="213" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A213" t="s">
+        <v>16</v>
+      </c>
+      <c r="D213" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="E213" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="F213" s="17" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A214" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B214" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="D214" s="15"/>
+      <c r="E214" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="F214" s="9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A215" t="s">
+        <v>184</v>
+      </c>
+      <c r="B215" t="s">
+        <v>230</v>
+      </c>
+      <c r="E215" s="16" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A216" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B216" s="11">
+        <v>3000</v>
+      </c>
+      <c r="D216" s="12"/>
+      <c r="E216" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F216" s="13"/>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B217" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+      <c r="E217" s="16" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A218" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="B218" s="22"/>
+      <c r="D218" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="E218" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="F218" s="25"/>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B219" t="s">
+        <v>233</v>
+      </c>
+      <c r="E219" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="F219" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" t="s">
+        <v>184</v>
+      </c>
+      <c r="B220" t="s">
+        <v>239</v>
+      </c>
+      <c r="E220" s="16" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A221" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D221" s="31"/>
+      <c r="E221" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="F221" s="22"/>
+    </row>
+    <row r="222" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A222" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="B222" s="22"/>
+      <c r="D222" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="E222" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="F222" s="25"/>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B223" t="s">
+        <v>218</v>
+      </c>
+      <c r="E223" s="16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B224" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+      <c r="E224" s="16" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" t="s">
+        <v>184</v>
+      </c>
+      <c r="B225" t="s">
+        <v>240</v>
+      </c>
+      <c r="E225" s="16" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A226" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D226" s="31"/>
+      <c r="E226" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="F226" s="22"/>
+    </row>
+    <row r="227" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A227" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="B227" s="22"/>
+      <c r="D227" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="E227" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="F227" s="25"/>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B228" t="s">
+        <v>218</v>
+      </c>
+      <c r="E228" s="16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A229" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B229" s="11">
+        <v>3000</v>
+      </c>
+      <c r="D229" s="12"/>
+      <c r="E229" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F229" s="13"/>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B230" t="s">
+        <v>244</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="E230" s="16" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A231" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D231" s="31"/>
+      <c r="E231" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="F231" s="22"/>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B232" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="E232" s="16" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A233" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="B233" s="22"/>
+      <c r="D233" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="E233" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="F233" s="25"/>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B234" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
+      </c>
+      <c r="E234" s="16" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A235" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D235" s="31"/>
+      <c r="E235" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="F235" s="22"/>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" t="s">
+        <v>184</v>
+      </c>
+      <c r="B236" t="s">
+        <v>247</v>
+      </c>
+      <c r="E236" s="16" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" t="s">
+        <v>249</v>
+      </c>
+      <c r="B237" t="s">
+        <v>247</v>
+      </c>
+      <c r="D237">
         <v>2</v>
       </c>
-      <c r="D182" s="27"/>
-      <c r="E182" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="F182" s="29" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1">
-      <c r="A183" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B183" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="C183" s="14">
-        <v>3</v>
-      </c>
-      <c r="D183" s="27"/>
-      <c r="E183" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="F183" s="29" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" ht="16.5">
-      <c r="A184" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B184" t="s">
-        <v>144</v>
-      </c>
-      <c r="D184" s="20"/>
-      <c r="E184" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F184" s="20"/>
-    </row>
-    <row r="185" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A185" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B185" s="11">
+      <c r="E237" s="16" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" t="s">
+        <v>184</v>
+      </c>
+      <c r="B238" t="s">
+        <v>251</v>
+      </c>
+      <c r="E238" s="16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A239" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="B239" s="22"/>
+      <c r="D239" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="E239" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="F239" s="25"/>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B240" t="s">
+        <v>218</v>
+      </c>
+      <c r="E240" s="16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A241" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B241" s="11">
         <v>3000</v>
       </c>
-      <c r="D185" s="12"/>
-      <c r="E185" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F185" s="13"/>
-    </row>
-    <row r="186" spans="1:6" ht="16.5">
-      <c r="A186" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B186" t="s">
-        <v>137</v>
-      </c>
-      <c r="C186">
+      <c r="D241" s="12"/>
+      <c r="E241" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F241" s="13"/>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B242" t="s">
+        <v>244</v>
+      </c>
+      <c r="C242">
         <v>0</v>
       </c>
-      <c r="D186" s="20"/>
-      <c r="E186" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F186" s="20"/>
-    </row>
-    <row r="187" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A187" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B187" s="11">
+      <c r="E242" s="16" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A243" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D243" s="31"/>
+      <c r="E243" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="F243" s="22"/>
+    </row>
+    <row r="244" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A244" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B244" s="11">
         <v>3000</v>
       </c>
-      <c r="D187" s="12"/>
-      <c r="E187" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F187" s="13"/>
-    </row>
-    <row r="188" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A188" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B188" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E188" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="F188" s="17" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A189" t="s">
-        <v>16</v>
-      </c>
-      <c r="D189" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E189" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="F189" s="17" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A190" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B190" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="D190" s="9"/>
-      <c r="E190" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="F190" s="17"/>
-    </row>
-    <row r="191" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A191" t="s">
-        <v>16</v>
-      </c>
-      <c r="D191" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="E191" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="F191" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A192" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="D192" s="31"/>
-      <c r="E192" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="F192" s="22"/>
+      <c r="D244" s="12"/>
+      <c r="E244" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F244" s="13"/>
+    </row>
+    <row r="245" spans="1:6" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A245" t="s">
+        <v>184</v>
+      </c>
+      <c r="B245" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="D245" s="27"/>
+      <c r="E245" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="F245" s="29"/>
+    </row>
+    <row r="246" spans="1:6" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A246" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="B246" s="32"/>
+      <c r="D246" s="27"/>
+      <c r="E246" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="F246" s="29"/>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" t="s">
+        <v>184</v>
+      </c>
+      <c r="B247" t="s">
+        <v>251</v>
+      </c>
+      <c r="E247" s="16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A248" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B248" s="11">
+        <v>3000</v>
+      </c>
+      <c r="D248" s="12"/>
+      <c r="E248" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F248" s="13"/>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B249" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C249">
+        <v>2</v>
+      </c>
+      <c r="E249" s="16" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A250" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B250" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D250" s="12"/>
+      <c r="E250" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F250" s="13"/>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" t="s">
+        <v>184</v>
+      </c>
+      <c r="B251" t="s">
+        <v>369</v>
+      </c>
+      <c r="C251">
+        <v>0</v>
+      </c>
+      <c r="E251" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A252" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="B252" s="22"/>
+      <c r="D252" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="E252" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="F252" s="25"/>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B253" t="s">
+        <v>218</v>
+      </c>
+      <c r="E253" s="16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A254" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B254" s="11">
+        <v>3000</v>
+      </c>
+      <c r="D254" s="12"/>
+      <c r="E254" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F254" s="13"/>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B255" t="s">
+        <v>244</v>
+      </c>
+      <c r="C255">
+        <v>0</v>
+      </c>
+      <c r="E255" s="16" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A256" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D256" s="31"/>
+      <c r="E256" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="F256" s="22"/>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B257" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C257">
+        <v>2</v>
+      </c>
+      <c r="E257" s="16" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A258" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B258" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D258" s="12"/>
+      <c r="E258" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F258" s="13"/>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" t="s">
+        <v>184</v>
+      </c>
+      <c r="B259" t="s">
+        <v>369</v>
+      </c>
+      <c r="C259">
+        <v>1</v>
+      </c>
+      <c r="E259" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A260" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="B260" s="22"/>
+      <c r="D260" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="E260" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="F260" s="25"/>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B261" t="s">
+        <v>218</v>
+      </c>
+      <c r="E261" s="16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A262" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B262" s="11">
+        <v>3000</v>
+      </c>
+      <c r="D262" s="12"/>
+      <c r="E262" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F262" s="13"/>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B263" t="s">
+        <v>244</v>
+      </c>
+      <c r="C263">
+        <v>0</v>
+      </c>
+      <c r="E263" s="16" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A264" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D264" s="31"/>
+      <c r="E264" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="F264" s="22"/>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B265" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C265">
+        <v>0</v>
+      </c>
+      <c r="E265" s="16" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A266" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="B266" s="22"/>
+      <c r="D266" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="E266" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="F266" s="25"/>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B267" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C267">
+        <v>0</v>
+      </c>
+      <c r="E267" s="16" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A268" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D268" s="31"/>
+      <c r="E268" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="F268" s="22"/>
+    </row>
+    <row r="269" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A269" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="B269" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="C269" s="16">
+        <v>0</v>
+      </c>
+      <c r="D269" s="34"/>
+      <c r="E269" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F269" s="17"/>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" t="s">
+        <v>256</v>
+      </c>
+      <c r="B270" t="s">
+        <v>257</v>
+      </c>
+      <c r="C270">
+        <v>0</v>
+      </c>
+      <c r="D270" s="33">
+        <v>43388</v>
+      </c>
+      <c r="E270" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" t="s">
+        <v>256</v>
+      </c>
+      <c r="B271" t="s">
+        <v>257</v>
+      </c>
+      <c r="C271">
+        <v>1</v>
+      </c>
+      <c r="D271" s="33">
+        <v>43403</v>
+      </c>
+      <c r="E271" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" t="s">
+        <v>184</v>
+      </c>
+      <c r="B272" t="s">
+        <v>260</v>
+      </c>
+      <c r="E272" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A273" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="B273" s="22"/>
+      <c r="D273" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="E273" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="F273" s="25"/>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B274" t="s">
+        <v>218</v>
+      </c>
+      <c r="E274" s="16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A275" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B275" s="11">
+        <v>3000</v>
+      </c>
+      <c r="D275" s="12"/>
+      <c r="E275" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F275" s="13"/>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B276" t="s">
+        <v>244</v>
+      </c>
+      <c r="C276">
+        <v>0</v>
+      </c>
+      <c r="E276" s="16" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A277" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D277" s="31"/>
+      <c r="E277" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="F277" s="22"/>
+    </row>
+    <row r="278" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A278" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B278" s="11">
+        <v>3000</v>
+      </c>
+      <c r="D278" s="12"/>
+      <c r="E278" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F278" s="13"/>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B279" t="s">
+        <v>262</v>
+      </c>
+      <c r="E279" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A280" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B280" s="11">
+        <v>3000</v>
+      </c>
+      <c r="D280" s="12"/>
+      <c r="E280" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F280" s="13"/>
+    </row>
+    <row r="281" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A281" t="s">
+        <v>16</v>
+      </c>
+      <c r="D281" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="E281" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="F281" s="17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282" t="s">
+        <v>16</v>
+      </c>
+      <c r="D282" t="s">
+        <v>271</v>
+      </c>
+      <c r="E282" t="s">
+        <v>276</v>
+      </c>
+      <c r="F282" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283" t="s">
+        <v>16</v>
+      </c>
+      <c r="D283" t="s">
+        <v>273</v>
+      </c>
+      <c r="E283" t="s">
+        <v>277</v>
+      </c>
+      <c r="F283" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284" t="s">
+        <v>16</v>
+      </c>
+      <c r="D284" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="E284" t="s">
+        <v>278</v>
+      </c>
+      <c r="F284" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A285" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B285" s="11">
+        <v>3000</v>
+      </c>
+      <c r="D285" s="12"/>
+      <c r="E285" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F285" s="13"/>
+    </row>
+    <row r="286" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A286" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="B286" s="22"/>
+      <c r="D286" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="E286" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="F286" s="25"/>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B287" t="s">
+        <v>218</v>
+      </c>
+      <c r="E287" s="16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A288" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B288" s="11">
+        <v>3000</v>
+      </c>
+      <c r="D288" s="12"/>
+      <c r="E288" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F288" s="13"/>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B289" t="s">
+        <v>244</v>
+      </c>
+      <c r="C289">
+        <v>0</v>
+      </c>
+      <c r="E289" s="16" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A290" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B290" s="11">
+        <v>3000</v>
+      </c>
+      <c r="D290" s="12"/>
+      <c r="E290" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F290" s="13"/>
+    </row>
+    <row r="291" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A291" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D291" s="31"/>
+      <c r="E291" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="F291" s="22"/>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B292" t="s">
+        <v>279</v>
+      </c>
+      <c r="E292" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A293" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B293" s="11">
+        <v>3000</v>
+      </c>
+      <c r="D293" s="12"/>
+      <c r="E293" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F293" s="13"/>
+    </row>
+    <row r="294" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A294" t="s">
+        <v>16</v>
+      </c>
+      <c r="D294" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="E294" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="F294" s="17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A295" t="s">
+        <v>16</v>
+      </c>
+      <c r="D295" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="E295" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="F295" s="9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296" t="s">
+        <v>16</v>
+      </c>
+      <c r="D296" t="s">
+        <v>285</v>
+      </c>
+      <c r="E296" t="s">
+        <v>287</v>
+      </c>
+      <c r="F296" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A297" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="B297" s="22"/>
+      <c r="D297" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="E297" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="F297" s="25"/>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B298" t="s">
+        <v>218</v>
+      </c>
+      <c r="E298" s="16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A299" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B299" s="11">
+        <v>3000</v>
+      </c>
+      <c r="D299" s="12"/>
+      <c r="E299" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F299" s="13"/>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B300" t="s">
+        <v>244</v>
+      </c>
+      <c r="C300">
+        <v>0</v>
+      </c>
+      <c r="E300" s="16" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A301" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B301" s="11">
+        <v>3000</v>
+      </c>
+      <c r="D301" s="12"/>
+      <c r="E301" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F301" s="13"/>
+    </row>
+    <row r="302" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A302" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D302" s="31"/>
+      <c r="E302" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="F302" s="22"/>
+    </row>
+    <row r="303" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A303" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="B303" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D303" s="34"/>
+      <c r="E303" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F303" s="17"/>
+    </row>
+    <row r="304" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A304" t="s">
+        <v>256</v>
+      </c>
+      <c r="B304" t="s">
+        <v>257</v>
+      </c>
+      <c r="C304">
+        <v>0</v>
+      </c>
+      <c r="D304" s="33">
+        <v>43388</v>
+      </c>
+      <c r="E304" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
+      <c r="A305" t="s">
+        <v>256</v>
+      </c>
+      <c r="B305" t="s">
+        <v>257</v>
+      </c>
+      <c r="C305">
+        <v>1</v>
+      </c>
+      <c r="D305" s="33">
+        <v>43403</v>
+      </c>
+      <c r="E305" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A306" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="B306" s="22"/>
+      <c r="D306" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="E306" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="F306" s="25"/>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="A307" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B307" t="s">
+        <v>218</v>
+      </c>
+      <c r="E307" s="16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A308" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B308" s="11">
+        <v>3000</v>
+      </c>
+      <c r="D308" s="12"/>
+      <c r="E308" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F308" s="13"/>
+    </row>
+    <row r="309" spans="1:6">
+      <c r="A309" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B309" t="s">
+        <v>244</v>
+      </c>
+      <c r="C309">
+        <v>0</v>
+      </c>
+      <c r="E309" s="16" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A310" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B310" s="11">
+        <v>3000</v>
+      </c>
+      <c r="D310" s="12"/>
+      <c r="E310" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F310" s="13"/>
+    </row>
+    <row r="311" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A311" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D311" s="31"/>
+      <c r="E311" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="F311" s="22"/>
+    </row>
+    <row r="312" spans="1:6">
+      <c r="A312" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="B312" t="s">
+        <v>290</v>
+      </c>
+      <c r="C312">
+        <v>1</v>
+      </c>
+      <c r="E312" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A313" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B313" s="11">
+        <v>3000</v>
+      </c>
+      <c r="D313" s="12"/>
+      <c r="E313" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F313" s="13"/>
+    </row>
+    <row r="314" spans="1:6">
+      <c r="A314" t="s">
+        <v>184</v>
+      </c>
+      <c r="B314" t="s">
+        <v>247</v>
+      </c>
+      <c r="E314" s="16" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
+      <c r="A315" t="s">
+        <v>249</v>
+      </c>
+      <c r="B315" t="s">
+        <v>247</v>
+      </c>
+      <c r="D315" t="s">
+        <v>292</v>
+      </c>
+      <c r="E315" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6">
+      <c r="A316" t="s">
+        <v>184</v>
+      </c>
+      <c r="B316" t="s">
+        <v>251</v>
+      </c>
+      <c r="E316" s="16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A317" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="B317" s="22"/>
+      <c r="D317" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="E317" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="F317" s="25"/>
+    </row>
+    <row r="318" spans="1:6">
+      <c r="A318" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B318" t="s">
+        <v>218</v>
+      </c>
+      <c r="E318" s="16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A319" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B319" s="11">
+        <v>3000</v>
+      </c>
+      <c r="D319" s="12"/>
+      <c r="E319" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F319" s="13"/>
+    </row>
+    <row r="320" spans="1:6">
+      <c r="A320" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B320" t="s">
+        <v>244</v>
+      </c>
+      <c r="C320">
+        <v>0</v>
+      </c>
+      <c r="E320" s="16" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" s="23" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A321" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D321" s="31"/>
+      <c r="E321" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="F321" s="22"/>
+    </row>
+    <row r="322" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A322" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B322" s="11">
+        <v>3000</v>
+      </c>
+      <c r="D322" s="12"/>
+      <c r="E322" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F322" s="13"/>
+    </row>
+    <row r="323" spans="1:6" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A323" t="s">
+        <v>184</v>
+      </c>
+      <c r="B323" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="D323" s="27"/>
+      <c r="E323" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="F323" s="29"/>
+    </row>
+    <row r="324" spans="1:6" s="14" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A324" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="B324" s="32"/>
+      <c r="D324" s="27"/>
+      <c r="E324" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="F324" s="29"/>
+    </row>
+    <row r="325" spans="1:6">
+      <c r="A325" t="s">
+        <v>184</v>
+      </c>
+      <c r="B325" t="s">
+        <v>251</v>
+      </c>
+      <c r="E325" s="16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A326" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B326" s="11">
+        <v>3000</v>
+      </c>
+      <c r="D326" s="12"/>
+      <c r="E326" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F326" s="13"/>
+    </row>
+    <row r="327" spans="1:6">
+      <c r="A327" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B327" t="s">
+        <v>294</v>
+      </c>
+      <c r="E327" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A328" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B328" s="11">
+        <v>3000</v>
+      </c>
+      <c r="D328" s="12"/>
+      <c r="E328" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F328" s="13"/>
+    </row>
+    <row r="329" spans="1:6">
+      <c r="A329" t="s">
+        <v>296</v>
+      </c>
+      <c r="B329" s="6"/>
+      <c r="D329" t="s">
+        <v>297</v>
+      </c>
+      <c r="E329" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F329" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A330" t="s">
+        <v>16</v>
+      </c>
+      <c r="D330" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="E330" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="F330" s="9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A331" t="s">
+        <v>16</v>
+      </c>
+      <c r="D331" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="E331" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="F331" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A332" t="s">
+        <v>16</v>
+      </c>
+      <c r="D332" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="E332" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="F332" s="9" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A333" t="s">
+        <v>16</v>
+      </c>
+      <c r="D333" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="E333" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="F333" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A334" t="s">
+        <v>16</v>
+      </c>
+      <c r="D334" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="E334" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="F334" s="15" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A335" t="s">
+        <v>16</v>
+      </c>
+      <c r="D335" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="E335" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="F335" s="15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A336" t="s">
+        <v>16</v>
+      </c>
+      <c r="D336" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="E336" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="F336" s="15" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6">
+      <c r="A337" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B337" t="s">
+        <v>315</v>
+      </c>
+      <c r="C337">
+        <v>0</v>
+      </c>
+      <c r="E337" s="16" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A338" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B338" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D338" s="12"/>
+      <c r="E338" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F338" s="13"/>
+    </row>
+    <row r="339" spans="1:6">
+      <c r="A339" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B339" t="s">
+        <v>367</v>
+      </c>
+      <c r="C339">
+        <v>8</v>
+      </c>
+      <c r="E339" s="16" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6">
+      <c r="A340" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B340" t="s">
+        <v>315</v>
+      </c>
+      <c r="C340">
+        <v>0</v>
+      </c>
+      <c r="E340" s="16" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6">
+      <c r="A341" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B341" t="s">
+        <v>368</v>
+      </c>
+      <c r="C341">
+        <v>0</v>
+      </c>
+      <c r="E341" s="16" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A342" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B342" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D342" s="12"/>
+      <c r="E342" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F342" s="13"/>
+    </row>
+    <row r="343" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A343" t="s">
+        <v>256</v>
+      </c>
+      <c r="B343" t="s">
+        <v>257</v>
+      </c>
+      <c r="C343">
+        <v>0</v>
+      </c>
+      <c r="D343" s="33">
+        <v>43388</v>
+      </c>
+      <c r="E343" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6">
+      <c r="A344" t="s">
+        <v>256</v>
+      </c>
+      <c r="B344" t="s">
+        <v>257</v>
+      </c>
+      <c r="C344">
+        <v>1</v>
+      </c>
+      <c r="D344" s="33">
+        <v>43403</v>
+      </c>
+      <c r="E344" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A345" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B345" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D345" s="12"/>
+      <c r="E345" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F345" s="13"/>
+    </row>
+    <row r="346" spans="1:6">
+      <c r="A346" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B346" t="s">
+        <v>315</v>
+      </c>
+      <c r="C346">
+        <v>1</v>
+      </c>
+      <c r="E346" s="16" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A347" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B347" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D347" s="12"/>
+      <c r="E347" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F347" s="13"/>
+    </row>
+    <row r="348" spans="1:6">
+      <c r="A348" t="s">
+        <v>184</v>
+      </c>
+      <c r="B348" t="s">
+        <v>320</v>
+      </c>
+      <c r="E348" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6">
+      <c r="A349" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B349" t="s">
+        <v>315</v>
+      </c>
+      <c r="C349">
+        <v>1</v>
+      </c>
+      <c r="E349" s="16" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6">
+      <c r="A350" t="s">
+        <v>184</v>
+      </c>
+      <c r="B350" t="s">
+        <v>324</v>
+      </c>
+      <c r="E350" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A351" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B351" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D351" s="12"/>
+      <c r="E351" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F351" s="13"/>
+    </row>
+    <row r="352" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A352" t="s">
+        <v>16</v>
+      </c>
+      <c r="D352" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="E352" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="F352" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6">
+      <c r="A353" t="s">
+        <v>16</v>
+      </c>
+      <c r="D353" t="s">
+        <v>329</v>
+      </c>
+      <c r="E353" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="F353" s="9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6">
+      <c r="A354" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B354" t="s">
+        <v>331</v>
+      </c>
+      <c r="C354">
+        <v>0</v>
+      </c>
+      <c r="E354" s="16" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6">
+      <c r="A355" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B355" t="s">
+        <v>333</v>
+      </c>
+      <c r="C355">
+        <v>0</v>
+      </c>
+      <c r="E355" s="16" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A356" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B356" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D356" s="12"/>
+      <c r="E356" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F356" s="13"/>
+    </row>
+    <row r="357" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A357" t="s">
+        <v>16</v>
+      </c>
+      <c r="D357" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="E357" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="F357" s="15" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A358" t="s">
+        <v>16</v>
+      </c>
+      <c r="D358" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="E358" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="F358" s="15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A359" t="s">
+        <v>16</v>
+      </c>
+      <c r="D359" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="E359" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="F359" s="15" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6">
+      <c r="A360" t="s">
+        <v>184</v>
+      </c>
+      <c r="B360" t="s">
+        <v>324</v>
+      </c>
+      <c r="E360" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A361" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B361" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D361" s="12"/>
+      <c r="E361" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F361" s="13"/>
+    </row>
+    <row r="362" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A362" t="s">
+        <v>16</v>
+      </c>
+      <c r="D362" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="E362" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="F362" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6">
+      <c r="A363" t="s">
+        <v>16</v>
+      </c>
+      <c r="D363" t="s">
+        <v>329</v>
+      </c>
+      <c r="E363" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="F363" s="9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6">
+      <c r="A364" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B364" t="s">
+        <v>331</v>
+      </c>
+      <c r="C364">
+        <v>0</v>
+      </c>
+      <c r="E364" s="16" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6">
+      <c r="A365" t="s">
+        <v>184</v>
+      </c>
+      <c r="B365" t="s">
+        <v>324</v>
+      </c>
+      <c r="E365" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A366" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B366" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D366" s="12"/>
+      <c r="E366" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F366" s="13"/>
+    </row>
+    <row r="367" spans="1:6" ht="18" customHeight="1">
+      <c r="A367" t="s">
+        <v>16</v>
+      </c>
+      <c r="D367" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="E367" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="F367" s="9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" ht="18" customHeight="1">
+      <c r="A368" t="s">
+        <v>16</v>
+      </c>
+      <c r="D368" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="E368" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="F368" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6">
+      <c r="A369" t="s">
+        <v>16</v>
+      </c>
+      <c r="D369" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="E369" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="F369" s="9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6">
+      <c r="A370" t="s">
+        <v>16</v>
+      </c>
+      <c r="D370" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="E370" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="F370" s="9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6">
+      <c r="A371" t="s">
+        <v>184</v>
+      </c>
+      <c r="B371" t="s">
+        <v>343</v>
+      </c>
+      <c r="E371" s="16" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6">
+      <c r="A372" t="s">
+        <v>249</v>
+      </c>
+      <c r="B372" t="s">
+        <v>344</v>
+      </c>
+      <c r="D372">
+        <v>1</v>
+      </c>
+      <c r="E372" s="16" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6">
+      <c r="A373" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B373" t="s">
+        <v>347</v>
+      </c>
+      <c r="C373">
+        <v>1</v>
+      </c>
+      <c r="E373" s="16" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A374" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B374" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D374" s="12"/>
+      <c r="E374" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F374" s="13"/>
+    </row>
+    <row r="375" spans="1:6">
+      <c r="A375" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B375" t="s">
+        <v>347</v>
+      </c>
+      <c r="C375">
+        <v>2</v>
+      </c>
+      <c r="E375" s="16" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A376" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B376" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D376" s="12"/>
+      <c r="E376" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F376" s="13"/>
+    </row>
+    <row r="377" spans="1:6">
+      <c r="A377" t="s">
+        <v>184</v>
+      </c>
+      <c r="B377" t="s">
+        <v>354</v>
+      </c>
+      <c r="E377" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6">
+      <c r="A378" t="s">
+        <v>184</v>
+      </c>
+      <c r="B378" t="s">
+        <v>324</v>
+      </c>
+      <c r="E378" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6">
+      <c r="A379" t="s">
+        <v>16</v>
+      </c>
+      <c r="D379" t="s">
+        <v>357</v>
+      </c>
+      <c r="E379" t="s">
+        <v>359</v>
+      </c>
+      <c r="F379" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A380" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B380" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D380" s="12"/>
+      <c r="E380" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F380" s="13"/>
+    </row>
+    <row r="381" spans="1:6">
+      <c r="A381" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B381" t="s">
+        <v>333</v>
+      </c>
+      <c r="C381">
+        <v>0</v>
+      </c>
+      <c r="E381" s="16" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A382" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B382" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D382" s="12"/>
+      <c r="E382" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F382" s="13"/>
+    </row>
+    <row r="383" spans="1:6" s="16" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A383" t="s">
+        <v>16</v>
+      </c>
+      <c r="D383" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="E383" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="F383" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6">
+      <c r="A384" t="s">
+        <v>16</v>
+      </c>
+      <c r="D384" t="s">
+        <v>329</v>
+      </c>
+      <c r="E384" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="F384" s="9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6">
+      <c r="A385" t="s">
+        <v>184</v>
+      </c>
+      <c r="B385" t="s">
+        <v>324</v>
+      </c>
+      <c r="E385" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A386" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B386" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D386" s="12"/>
+      <c r="E386" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F386" s="13"/>
+    </row>
+    <row r="387" spans="1:6">
+      <c r="A387" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B387" t="s">
+        <v>350</v>
+      </c>
+      <c r="C387">
+        <v>6</v>
+      </c>
+      <c r="E387" s="16" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6">
+      <c r="A388" t="s">
+        <v>353</v>
+      </c>
+      <c r="B388" t="s">
+        <v>350</v>
+      </c>
+      <c r="C388" s="14">
+        <v>6</v>
+      </c>
+      <c r="D388" s="33">
+        <v>43403</v>
+      </c>
+      <c r="E388" s="14" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6">
+      <c r="A389" t="s">
+        <v>184</v>
+      </c>
+      <c r="B389" t="s">
+        <v>356</v>
+      </c>
+      <c r="E389" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6">
+      <c r="A390" t="s">
+        <v>184</v>
+      </c>
+      <c r="B390" t="s">
+        <v>324</v>
+      </c>
+      <c r="E390" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A391" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B391" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D391" s="12"/>
+      <c r="E391" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F391" s="13"/>
+    </row>
+    <row r="392" spans="1:6">
+      <c r="A392" t="s">
+        <v>16</v>
+      </c>
+      <c r="D392" t="s">
+        <v>360</v>
+      </c>
+      <c r="E392" t="s">
+        <v>362</v>
+      </c>
+      <c r="F392" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" s="5" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A393" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B393" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D393" s="7"/>
+      <c r="E393" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="F393" s="8"/>
+    </row>
+    <row r="394" spans="1:6" s="10" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A394" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B394" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D394" s="12"/>
+      <c r="E394" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F394" s="13"/>
+    </row>
+    <row r="395" spans="1:6">
+      <c r="A395" t="s">
+        <v>11</v>
+      </c>
+      <c r="B395" s="6"/>
+      <c r="D395" t="s">
+        <v>364</v>
+      </c>
+      <c r="E395" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="F395" t="s">
+        <v>364</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
